--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2410,15 +2410,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2429,28 +2429,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="87.16015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.41796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.52734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="214.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2410,15 +2410,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2429,28 +2429,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.41796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.52734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.72265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.62109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="214.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1162,7 +1162,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportObservationCellMass.xlsx
+++ b/docs/StructureDefinition-PASportObservationCellMass.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
